--- a/results/mp/deberta/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
@@ -88,12 +88,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>safety</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>share</t>
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6753246753246753</v>
+        <v>0.6633663366336634</v>
       </c>
       <c r="L16">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="M16">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1056,25 +1056,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6633663366336634</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L17">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="M17">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1238,25 +1238,25 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5258358662613982</v>
+        <v>0.52</v>
       </c>
       <c r="L24">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1264,13 +1264,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.52</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="10:17">
